--- a/test_output.xlsx
+++ b/test_output.xlsx
@@ -472,7 +472,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -766,21 +768,21 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="4.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.83203125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="8" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.83203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -790,28 +792,28 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>23</v>
@@ -831,28 +833,28 @@
         <v>14</v>
       </c>
       <c r="C2">
+        <v>1138</v>
+      </c>
+      <c r="D2">
         <v>371</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>129</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>180</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>150</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>101</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>207</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>362</v>
-      </c>
-      <c r="J2">
-        <v>1138</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -869,28 +871,28 @@
         <v>15</v>
       </c>
       <c r="C3">
+        <v>1153</v>
+      </c>
+      <c r="D3">
         <v>396</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>134</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>152</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>150</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>112</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>209</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>347</v>
-      </c>
-      <c r="J3">
-        <v>1153</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -907,28 +909,28 @@
         <v>16</v>
       </c>
       <c r="C4">
+        <v>1280</v>
+      </c>
+      <c r="D4">
         <v>462</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>139</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>160</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>150</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>110</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>259</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>220</v>
-      </c>
-      <c r="J4">
-        <v>1280</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -945,28 +947,28 @@
         <v>17</v>
       </c>
       <c r="C5">
+        <v>1244</v>
+      </c>
+      <c r="D5">
         <v>464</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>124</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>169</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>150</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>110</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>227</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>256</v>
-      </c>
-      <c r="J5">
-        <v>1244</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -983,28 +985,28 @@
         <v>18</v>
       </c>
       <c r="C6">
+        <v>1224</v>
+      </c>
+      <c r="D6">
         <v>383</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>143</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>193</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>150</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>105</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>250</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>276</v>
-      </c>
-      <c r="J6">
-        <v>1224</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1021,28 +1023,28 @@
         <v>19</v>
       </c>
       <c r="C7">
+        <v>1168</v>
+      </c>
+      <c r="D7">
         <v>385</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>108</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>151</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>150</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>112</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>262</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>332</v>
-      </c>
-      <c r="J7">
-        <v>1168</v>
       </c>
       <c r="K7">
         <v>500</v>
@@ -1059,28 +1061,28 @@
         <v>20</v>
       </c>
       <c r="C8">
+        <v>1264</v>
+      </c>
+      <c r="D8">
         <v>492</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>115</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>154</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>150</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>109</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>244</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>236</v>
-      </c>
-      <c r="J8">
-        <v>1264</v>
       </c>
       <c r="K8">
         <v>1000</v>
@@ -1097,28 +1099,28 @@
         <v>21</v>
       </c>
       <c r="C9">
+        <v>1153</v>
+      </c>
+      <c r="D9">
         <v>389</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>116</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>185</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>150</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>111</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>202</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>347</v>
-      </c>
-      <c r="J9">
-        <v>1153</v>
       </c>
       <c r="K9">
         <v>2000</v>
@@ -1135,28 +1137,28 @@
         <v>22</v>
       </c>
       <c r="C10">
+        <v>1244</v>
+      </c>
+      <c r="D10">
         <v>452</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>135</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>166</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>150</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>119</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>222</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>256</v>
-      </c>
-      <c r="J10">
-        <v>1244</v>
       </c>
       <c r="K10">
         <v>4000</v>
@@ -1173,28 +1175,28 @@
         <v>4</v>
       </c>
       <c r="C11">
+        <v>1313</v>
+      </c>
+      <c r="D11">
         <v>465</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>117</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>172</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>150</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>116</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>293</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>187</v>
-      </c>
-      <c r="J11">
-        <v>1313</v>
       </c>
       <c r="K11">
         <v>6000</v>
@@ -1211,28 +1213,28 @@
         <v>5</v>
       </c>
       <c r="C12">
+        <v>1287</v>
+      </c>
+      <c r="D12">
         <v>427</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>135</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>186</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>150</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>110</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>279</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>213</v>
-      </c>
-      <c r="J12">
-        <v>1287</v>
       </c>
       <c r="K12">
         <v>7000</v>
@@ -1249,28 +1251,28 @@
         <v>6</v>
       </c>
       <c r="C13">
+        <v>1339</v>
+      </c>
+      <c r="D13">
         <v>491</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>108</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>196</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>150</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>106</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>288</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>161</v>
-      </c>
-      <c r="J13">
-        <v>1339</v>
       </c>
       <c r="K13">
         <v>9000</v>
